--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">Problem 1</t>
+  </si>
   <si>
     <t xml:space="preserve">Breadth First</t>
   </si>
@@ -120,6 +123,9 @@
     <t xml:space="preserve">Unload(C1, P2, JFK)</t>
   </si>
   <si>
+    <t xml:space="preserve">Problem 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNF</t>
   </si>
   <si>
@@ -259,6 +265,9 @@
   </si>
   <si>
     <t xml:space="preserve">Unload(C3, P1, ATL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem 3</t>
   </si>
   <si>
     <t xml:space="preserve">Fly(P1, SFO, ORD)</t>
@@ -346,10 +355,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,6 +380,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -421,16 +438,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,10 +476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -464,71 +489,51 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1458</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>4229</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,34 +541,34 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,34 +576,34 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5960</v>
+        <v>1459</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>17023</v>
+        <v>4230</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,130 +611,133 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5960</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>17023</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>0.0307803010000498</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.942110951997165</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.0142769209996914</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.0972444380022353</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.0399839919991791</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>2.79539518800084</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>0.00485273999947822</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>0.0407278710008541</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>0.0413040260027629</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>1.61194393899859</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>17</v>
@@ -749,22 +757,22 @@
         <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>18</v>
@@ -772,31 +780,31 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>19</v>
@@ -804,54 +812,54 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>23</v>
@@ -860,74 +868,98 @@
         <v>23</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>21</v>
+      <c r="F13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,15 +967,15 @@
         <v>30</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,15 +983,15 @@
         <v>20</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,160 +1007,171 @@
         <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="E27" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1144,10 +1187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K625"/>
+  <dimension ref="A1:K626"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1163,71 +1206,51 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>3343</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6240</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>4853</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>998</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>4853</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1506</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,25 +1258,34 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4609</v>
+        <v>3343</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>625</v>
+        <v>6240</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4855</v>
+        <v>4853</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,25 +1293,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30509</v>
+        <v>4609</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>5602</v>
+        <v>625</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>44041</v>
+        <v>4855</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>8982</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>44041</v>
+        <v>4855</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>13820</v>
+        <v>1508</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>841</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,97 +1319,100 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>30509</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5602</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>44041</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>8982</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>44041</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>13820</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>13.8028571740033</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>3.39598774300248</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>45.5681908639999</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>7.62207978700098</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>46.0146580160035</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>14.5583024200023</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>174.533706017999</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>619</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>619</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>17</v>
@@ -1385,22 +1420,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>18</v>
@@ -1408,22 +1443,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>19</v>
@@ -1431,125 +1466,140 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,12 +1615,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>37</v>
@@ -1578,161 +1628,164 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,42 +1795,42 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,147 +1840,147 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="0" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="0" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,332 +1990,332 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="0" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,122 +2325,122 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="0" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="0" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="0" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,47 +2450,47 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,232 +2500,232 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="0" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="0" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D217" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D218" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D219" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D223" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D224" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D225" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D226" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D232" s="0" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D233" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,347 +2735,347 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D238" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D239" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D240" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D241" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D244" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D245" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D246" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D247" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D248" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D249" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D250" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D251" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D252" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D254" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D255" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D256" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D257" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D258" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D259" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D261" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D262" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D263" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D264" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D265" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D267" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D269" s="0" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D270" s="0" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D271" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D272" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D274" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D275" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D276" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D277" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D278" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D279" s="0" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D280" s="0" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D281" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D282" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D283" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D284" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D285" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D286" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D287" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D288" s="0" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D289" s="0" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D290" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D291" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D292" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D293" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D294" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D295" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D296" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D297" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D298" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D299" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D300" s="0" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D301" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D302" s="0" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D303" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D304" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,227 +3085,227 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D306" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D307" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D308" s="0" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D309" s="0" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D310" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D311" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D312" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D313" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D314" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D315" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D316" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D317" s="0" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D318" s="0" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D319" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D320" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D321" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D322" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D323" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D324" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D325" s="0" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D326" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D327" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D328" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D329" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D330" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D331" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D332" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D333" s="0" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D334" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D335" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D336" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D337" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D338" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D339" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D340" s="0" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D341" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D342" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D343" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D344" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D345" s="0" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D346" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D347" s="0" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D348" s="0" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D349" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D350" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,402 +3315,402 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D352" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D353" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D354" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D355" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D356" s="0" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D357" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D358" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D359" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D360" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D361" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D362" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D363" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D364" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D365" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D366" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D367" s="0" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D368" s="0" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D369" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D370" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D371" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D372" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D373" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D374" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D375" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D376" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D377" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D378" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D379" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D380" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D381" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D382" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D383" s="0" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D384" s="0" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D385" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D386" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D387" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D388" s="0" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D389" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D390" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D391" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D392" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D393" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D394" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D395" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D396" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D397" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D398" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D399" s="0" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D400" s="0" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D401" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D402" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D403" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D404" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D405" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D406" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D407" s="0" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D408" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D409" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D410" s="0" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D411" s="0" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D412" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D413" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D414" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D415" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D416" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D417" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D418" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D419" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D420" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D421" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D422" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D423" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D424" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D425" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D426" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D427" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D428" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D429" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D430" s="0" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D431" s="0" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,87 +3720,87 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D433" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D434" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D435" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D436" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D437" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D438" s="0" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D439" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D440" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D441" s="0" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D442" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D443" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D444" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D445" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D446" s="0" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D447" s="0" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D448" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D449" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,132 +3810,132 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D451" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D452" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D453" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D454" s="0" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D455" s="0" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D456" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D457" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D458" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D459" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D460" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D461" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D462" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D463" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D464" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D465" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D466" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D467" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D468" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D469" s="0" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D470" s="0" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D471" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D472" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D473" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D474" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D475" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D476" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,32 +3945,32 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D478" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D479" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D480" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D481" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D482" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D483" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,22 +3985,22 @@
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D486" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D487" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D488" s="0" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D489" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,107 +4010,107 @@
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D491" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D492" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D493" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D494" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D495" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D496" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D497" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D498" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D499" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D500" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D501" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D502" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D503" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D504" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D505" s="0" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D506" s="0" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D507" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D508" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D509" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D510" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D511" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,17 +4120,17 @@
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D513" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D514" s="0" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D515" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,87 +4145,87 @@
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D518" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D519" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D520" s="0" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D521" s="0" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D522" s="0" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D523" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D524" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D525" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D526" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D527" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D528" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D529" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D530" s="0" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D531" s="0" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D532" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D533" s="0" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D534" s="0" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,302 +4235,302 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D536" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D537" s="0" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D538" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D539" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D540" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D541" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D542" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D543" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D544" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D545" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D546" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D547" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D548" s="0" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D549" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D550" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D551" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D552" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D553" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D554" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D555" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D556" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D557" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D558" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D559" s="0" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D560" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D561" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D562" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D563" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D564" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D565" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D566" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D567" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D568" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D569" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D570" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D571" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D572" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D573" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D574" s="0" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D575" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D576" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D577" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D578" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D579" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D580" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D581" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D582" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D583" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D584" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D585" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D586" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D587" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D588" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D589" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D590" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D591" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D592" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D593" s="0" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D594" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D595" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,47 +4540,47 @@
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D597" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D598" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D599" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D600" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D601" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D602" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D603" s="0" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D604" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D605" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,100 +4590,108 @@
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D607" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D608" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D609" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D610" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D611" s="0" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D612" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D613" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D614" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D615" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D616" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D617" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D618" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D619" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D620" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D621" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D622" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D623" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D624" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D625" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D626" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4646,10 +4707,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:K313"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4666,71 +4727,51 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>14663</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>408</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>18223</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>5578</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>18223</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>5118</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,25 +4779,34 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>18098</v>
+        <v>14663</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>18225</v>
+        <v>18223</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>5580</v>
+        <v>5578</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>18225</v>
+        <v>18223</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,25 +4814,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>129631</v>
+        <v>18098</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3364</v>
+        <v>409</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>159618</v>
+        <v>18225</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>49150</v>
+        <v>5580</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>159618</v>
+        <v>18225</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>45650</v>
+        <v>5120</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3718</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,281 +4840,284 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>129631</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3364</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>159618</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>49150</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>159618</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>45650</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>109.766739461</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>1.85766961300033</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>410.173488140998</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>105.086068577999</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>398.205769667999</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>88.4036335249984</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K6" s="3" t="n">
         <v>1192.641115888</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>392</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="K10" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>89</v>
@@ -5072,503 +5125,521 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>89</v>
+      </c>
       <c r="D19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="0" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="0" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="0" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="0" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="0" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="0" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="0" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="0" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="0" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="0" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="0" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="0" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="0" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="0" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="0" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="0" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,177 +5649,177 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="0" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="0" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="0" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="0" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="0" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="0" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="0" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="0" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="0" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,672 +5829,672 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="0" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="0" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="0" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="0" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="0" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="0" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="0" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="0" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="0" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="0" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="0" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="0" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="0" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="0" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="0" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="0" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="0" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="0" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="0" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="0" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D217" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D218" s="0" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D219" s="0" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="0" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="0" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="0" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D223" s="0" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D224" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D225" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D226" s="0" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="0" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D232" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D233" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="0" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D235" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D238" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D239" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D240" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D241" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D244" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D245" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D246" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D247" s="0" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D248" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D249" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D250" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D251" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D252" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D253" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D254" s="0" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D255" s="0" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D256" s="0" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D257" s="0" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D258" s="0" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D259" s="0" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D260" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D261" s="0" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D262" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D263" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D264" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D265" s="0" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D267" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="0" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D269" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D270" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D271" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D272" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D273" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D274" s="0" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,62 +6504,62 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D276" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D277" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D278" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D279" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D280" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D281" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D282" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D283" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D284" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D285" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D286" s="0" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D287" s="0" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,125 +6569,133 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D289" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D290" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D291" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D292" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D293" s="0" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D294" s="0" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D295" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D296" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D297" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D298" s="0" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D299" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D300" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D301" s="0" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D302" s="0" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D303" s="0" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D304" s="0" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D305" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D306" s="0" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D307" s="0" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D308" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D309" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D310" s="0" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D311" s="0" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D312" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D313" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
